--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Agrp-Mc4r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Agrp-Mc4r.xlsx
@@ -528,22 +528,22 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.696372</v>
+        <v>0.3518616666666667</v>
       </c>
       <c r="H2">
-        <v>5.089116000000001</v>
+        <v>1.055585</v>
       </c>
       <c r="I2">
-        <v>0.8766440577238608</v>
+        <v>0.5958054833396739</v>
       </c>
       <c r="J2">
-        <v>0.8766440577238608</v>
+        <v>0.5958054833396738</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,7 +552,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.08268033333333333</v>
+        <v>0.08268033333333334</v>
       </c>
       <c r="N2">
         <v>0.248041</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.1402566024173333</v>
+        <v>0.02909203988722223</v>
       </c>
       <c r="R2">
-        <v>1.262309421756</v>
+        <v>0.261828358985</v>
       </c>
       <c r="S2">
-        <v>0.8766440577238608</v>
+        <v>0.5958054833396739</v>
       </c>
       <c r="T2">
-        <v>0.8766440577238608</v>
+        <v>0.5958054833396738</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,13 +599,13 @@
         <v>0.238703</v>
       </c>
       <c r="H3">
-        <v>0.7161090000000001</v>
+        <v>0.716109</v>
       </c>
       <c r="I3">
-        <v>0.1233559422761392</v>
+        <v>0.4041945166603262</v>
       </c>
       <c r="J3">
-        <v>0.1233559422761392</v>
+        <v>0.4041945166603262</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -614,7 +614,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.08268033333333333</v>
+        <v>0.08268033333333334</v>
       </c>
       <c r="N3">
         <v>0.248041</v>
@@ -632,10 +632,10 @@
         <v>0.177624392469</v>
       </c>
       <c r="S3">
-        <v>0.1233559422761392</v>
+        <v>0.4041945166603262</v>
       </c>
       <c r="T3">
-        <v>0.1233559422761392</v>
+        <v>0.4041945166603262</v>
       </c>
     </row>
   </sheetData>
